--- a/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
+++ b/InputData/dist-heat/BFoHfC/BAU Fraction of Heat from CHP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="50" windowWidth="23960" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -696,21 +696,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.7265625" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -718,35 +718,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -754,37 +754,37 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
@@ -802,14 +802,14 @@
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AK7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -1646,13 +1646,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -2859,11 +2859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:AJ17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
@@ -4079,7 +4079,7 @@
       <selection activeCell="B4" sqref="B4:AJ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
@@ -6675,9 +6675,9 @@
       <selection activeCell="C11" sqref="C11:AK11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
